--- a/data_output/prism_passive/all_passive_out_strain_GMapo_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMapo_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1.4822880808289771</v>
+        <v>-1.482288088441333</v>
       </c>
       <c r="C2">
-        <v>-3.702100632665132</v>
+        <v>-3.7021006339372038</v>
       </c>
       <c r="D2">
-        <v>-6.9288292448498083</v>
+        <v>-6.9288292298118916</v>
       </c>
       <c r="E2">
-        <v>-4.8153188047970596</v>
+        <v>-4.8153188071656174</v>
       </c>
       <c r="F2">
-        <v>-14.18132771158233</v>
+        <v>-14.181327711481567</v>
       </c>
       <c r="G2">
-        <v>7.3390031107300064</v>
+        <v>7.3390031396692619</v>
       </c>
       <c r="H2">
-        <v>-5.6725397289523185</v>
+        <v>-5.6725397357826139</v>
       </c>
       <c r="I2">
-        <v>5.3018763435697682</v>
+        <v>5.3018763422464827</v>
       </c>
       <c r="J2">
-        <v>4.579161862391409</v>
+        <v>4.5791619107918846</v>
       </c>
       <c r="K2">
-        <v>-14.265486013096618</v>
+        <v>-14.265485994545685</v>
       </c>
       <c r="L2">
-        <v>7.6641897291475853</v>
+        <v>7.66418974232612</v>
       </c>
       <c r="M2">
-        <v>-1.7580819936667813</v>
+        <v>-1.7580819985885732</v>
       </c>
       <c r="N2">
-        <v>-0.18063852735644809</v>
+        <v>-0.18063852059616325</v>
       </c>
       <c r="O2">
-        <v>9.0116582755374619</v>
+        <v>9.0116582788977517</v>
       </c>
       <c r="P2">
-        <v>-0.42953486665950741</v>
+        <v>-0.4295348461602575</v>
       </c>
       <c r="Q2">
-        <v>-2.3153622044255364</v>
+        <v>-2.3153621864785618</v>
       </c>
       <c r="R2">
-        <v>-0.33442907242500508</v>
+        <v>-0.33442906210601803</v>
       </c>
       <c r="S2">
-        <v>5.4490576296080908</v>
+        <v>5.4490576513450275</v>
       </c>
       <c r="T2">
-        <v>-5.5841607051041011</v>
+        <v>-5.5841607073676585</v>
       </c>
       <c r="U2">
-        <v>6.6725081109433564</v>
+        <v>6.6725081162836304</v>
       </c>
       <c r="V2">
-        <v>-6.9738603966110997</v>
+        <v>-6.9738603704752808</v>
       </c>
       <c r="W2">
-        <v>7.2134275060399862</v>
+        <v>7.2134275062097544</v>
       </c>
       <c r="X2">
-        <v>-2.0420568116214439</v>
+        <v>-2.0420568084414605</v>
       </c>
       <c r="Y2">
-        <v>-2.2858235715384678</v>
+        <v>-2.2858235653297263</v>
       </c>
       <c r="Z2">
-        <v>-20.794363611508693</v>
+        <v>-20.794363609688993</v>
       </c>
       <c r="AA2">
-        <v>8.0913774186486318</v>
+        <v>8.0913774505632805</v>
       </c>
       <c r="AB2">
-        <v>-4.2637752713464243</v>
+        <v>-4.2637752529247948</v>
       </c>
       <c r="AC2">
-        <v>5.0072605391187981</v>
+        <v>5.0072605708322522</v>
       </c>
       <c r="AD2">
-        <v>-7.0185682285044582</v>
+        <v>-7.0185682067549671</v>
       </c>
       <c r="AE2">
-        <v>-24.718851169396853</v>
+        <v>-24.718851168736126</v>
       </c>
       <c r="AF2">
-        <v>-1.957498723309365</v>
+        <v>-1.9574987037258722</v>
       </c>
       <c r="AG2">
-        <v>1.0010595176558974</v>
+        <v>1.0010595094304697</v>
       </c>
       <c r="AH2">
-        <v>-1.7694417821126815</v>
+        <v>-1.769441768152983</v>
       </c>
       <c r="AI2">
-        <v>54.612357939700019</v>
+        <v>54.61235796683949</v>
       </c>
       <c r="AJ2">
-        <v>-3.2313457149542155</v>
+        <v>-3.2313457287131802</v>
       </c>
       <c r="AK2">
-        <v>-0.65120534636424954</v>
+        <v>-0.65120531789675928</v>
       </c>
       <c r="AL2">
-        <v>-7.8441606308211131</v>
+        <v>-7.8441606197554181</v>
       </c>
       <c r="AM2">
-        <v>-0.1652617474817259</v>
+        <v>-0.16526175387697595</v>
       </c>
       <c r="AN2">
-        <v>3.1016671955005203E-2</v>
+        <v>3.1016668627415124E-2</v>
       </c>
       <c r="AO2">
-        <v>-4.8854873438031881</v>
+        <v>-4.8854873310914746</v>
       </c>
       <c r="AP2">
-        <v>1.8455372174367835</v>
+        <v>1.8455372349929382</v>
       </c>
       <c r="AQ2">
-        <v>-0.71197062739560713</v>
+        <v>-0.71197059832238851</v>
       </c>
       <c r="AR2">
-        <v>0.86219710880576295</v>
+        <v>0.86219710214028089</v>
       </c>
       <c r="AS2">
-        <v>-3.4282642570153579</v>
+        <v>-3.4282642247089128</v>
       </c>
       <c r="AT2">
-        <v>-1.7912214251551342</v>
+        <v>-1.7912214101973172</v>
       </c>
       <c r="AU2">
-        <v>0.13780165024833796</v>
+        <v>0.13780166712924832</v>
       </c>
       <c r="AV2">
-        <v>-3.3944963116869467</v>
+        <v>-3.3944962893322299</v>
       </c>
       <c r="AW2">
-        <v>-2.1998195934180269</v>
+        <v>-2.1998195713149125</v>
       </c>
       <c r="AX2">
-        <v>-4.7534529599199615</v>
+        <v>-4.7534529442754598</v>
       </c>
       <c r="AY2">
-        <v>1.7721221955145556</v>
+        <v>1.7721222130790013</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.3250197355663227</v>
+        <v>2.3250197635698124</v>
       </c>
       <c r="C3">
-        <v>-0.97399613752152081</v>
+        <v>-0.9739961568900809</v>
       </c>
       <c r="D3">
-        <v>0.57229402941797936</v>
+        <v>0.57229403351028696</v>
       </c>
       <c r="E3">
-        <v>-11.417937650101655</v>
+        <v>-11.417937651373066</v>
       </c>
       <c r="F3">
-        <v>5.9626379963131049</v>
+        <v>5.9626380074307415</v>
       </c>
       <c r="G3">
-        <v>0.19843583584178598</v>
+        <v>0.19843582463812673</v>
       </c>
       <c r="H3">
-        <v>3.0761359071887573</v>
+        <v>3.0761359086937232</v>
       </c>
       <c r="I3">
-        <v>1.1927363660580985</v>
+        <v>1.1927363786682175</v>
       </c>
       <c r="J3">
-        <v>-0.76313664504403667</v>
+        <v>-0.76313663983858382</v>
       </c>
       <c r="K3">
-        <v>34.686772891305566</v>
+        <v>34.686772901001646</v>
       </c>
       <c r="L3">
-        <v>29.186847088909662</v>
+        <v>29.186847073268073</v>
       </c>
       <c r="M3">
-        <v>-3.7944026329332017</v>
+        <v>-3.7943598513119388</v>
       </c>
       <c r="N3">
-        <v>-0.49182236806440421</v>
+        <v>-0.49182236299995163</v>
       </c>
       <c r="O3">
-        <v>3.2432977381042081</v>
+        <v>3.2432977487955794</v>
       </c>
       <c r="P3">
-        <v>-18.167893239086073</v>
+        <v>-18.167893244375044</v>
       </c>
       <c r="Q3">
-        <v>-3.0354748867323122</v>
+        <v>-3.0354748726805902</v>
       </c>
       <c r="R3">
-        <v>2.9134668913735315</v>
+        <v>2.9134668924759173</v>
       </c>
       <c r="S3">
-        <v>6.6160132961730174</v>
+        <v>6.6160133024233554</v>
       </c>
       <c r="T3">
-        <v>6.4490445869395545</v>
+        <v>6.4490445860878891</v>
       </c>
       <c r="U3">
-        <v>-6.1299418745546763</v>
+        <v>-6.1299418813820763</v>
       </c>
       <c r="V3">
-        <v>5.7840001934217096</v>
+        <v>5.7840002006002225</v>
       </c>
       <c r="W3">
-        <v>2.133874462337483</v>
+        <v>2.1338744891171388</v>
       </c>
       <c r="X3">
-        <v>9.1509805140899765</v>
+        <v>9.1509805477743704</v>
       </c>
       <c r="Y3">
-        <v>5.0244382109753554</v>
+        <v>5.0244382185697818</v>
       </c>
       <c r="Z3">
-        <v>-4.7778183206267428</v>
+        <v>-4.7778183125658735</v>
       </c>
       <c r="AA3">
-        <v>-0.25646088170570458</v>
+        <v>-0.25646087433857045</v>
       </c>
       <c r="AB3">
-        <v>-3.7319714965202357</v>
+        <v>-3.7319714576123624</v>
       </c>
       <c r="AC3">
-        <v>0.10026361093462448</v>
+        <v>0.10026364864478793</v>
       </c>
       <c r="AD3">
-        <v>-9.0114290868345801</v>
+        <v>-9.0114290720388723</v>
       </c>
       <c r="AE3">
-        <v>-4.9441237593419771</v>
+        <v>-4.9441237645514446</v>
       </c>
       <c r="AF3">
-        <v>-0.11395181378551747</v>
+        <v>-0.11395179011589841</v>
       </c>
       <c r="AG3">
-        <v>12.179491998742115</v>
+        <v>12.179492023408701</v>
       </c>
       <c r="AH3">
-        <v>4.9940844497785211</v>
+        <v>4.9940844785952416</v>
       </c>
       <c r="AI3">
-        <v>-2.8128766145877244</v>
+        <v>-2.8128765883278626</v>
       </c>
       <c r="AJ3">
-        <v>-0.14387682032005414</v>
+        <v>-0.14387682946902303</v>
       </c>
       <c r="AK3">
-        <v>34.485979414009371</v>
+        <v>34.485979376616186</v>
       </c>
       <c r="AL3">
-        <v>-1.552593563468373</v>
+        <v>-1.5525935553187085</v>
       </c>
       <c r="AM3">
-        <v>-0.9252691387412646</v>
+        <v>-0.92526912242476089</v>
       </c>
       <c r="AN3">
-        <v>0.95061383800238342</v>
+        <v>0.95061384647129843</v>
       </c>
       <c r="AO3">
-        <v>10.732002092491241</v>
+        <v>10.732002122093427</v>
       </c>
       <c r="AP3">
-        <v>-6.6525355394558465</v>
+        <v>-6.6525355227412426</v>
       </c>
       <c r="AQ3">
-        <v>-2.0696526637738049</v>
+        <v>-2.0696526584561834</v>
       </c>
       <c r="AR3">
-        <v>-2.0711979476919486</v>
+        <v>-2.0711979323314216</v>
       </c>
       <c r="AS3">
-        <v>-0.46669189890329882</v>
+        <v>-0.46669188627736874</v>
       </c>
       <c r="AT3">
-        <v>-4.505863814081895</v>
+        <v>-4.5058637761847873</v>
       </c>
       <c r="AU3">
-        <v>-1.7519040521066427</v>
+        <v>-1.7519040317992716</v>
       </c>
       <c r="AV3">
-        <v>-1.6510095077214868</v>
+        <v>-1.6510095589011797</v>
       </c>
       <c r="AW3">
-        <v>-4.8727273826283382</v>
+        <v>-4.8727273872815164</v>
       </c>
       <c r="AX3">
-        <v>-24.967161407716549</v>
+        <v>-24.967161394903254</v>
       </c>
       <c r="AY3">
-        <v>-13.35455528478092</v>
+        <v>-13.354555285460092</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_GMapo_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMapo_submax_2.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,313 +401,307 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>-1.482288088441333</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>-3.7021006339372038</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-6.9288292298118916</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-4.8153188071656174</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-14.181327711481567</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>7.3390031396692619</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-5.6725397357826139</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>5.3018763422464827</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4.5791619107918846</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>-14.265485994545685</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>7.66418974232612</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-1.7580819985885732</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>-0.18063852059616325</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>9.0116582788977517</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>-0.4295348461602575</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>-2.3153621864785618</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-0.33442906210601803</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>5.4490576513450275</v>
+        <v>5.4491131949960661</v>
       </c>
       <c r="T2">
-        <v>-5.5841607073676585</v>
+        <v>-5.5841391706053152</v>
       </c>
       <c r="U2">
-        <v>6.6725081162836304</v>
+        <v>6.6725418529488909</v>
       </c>
       <c r="V2">
-        <v>-6.9738603704752808</v>
+        <v>-6.9738393142706068</v>
       </c>
       <c r="W2">
-        <v>7.2134275062097544</v>
+        <v>7.2134677150150139</v>
       </c>
       <c r="X2">
-        <v>-2.0420568084414605</v>
+        <v>-2.0421065043482192</v>
       </c>
       <c r="Y2">
-        <v>-2.2858235653297263</v>
+        <v>-2.285846069050629</v>
       </c>
       <c r="Z2">
-        <v>-20.794363609688993</v>
+        <v>-20.794409707134264</v>
       </c>
       <c r="AA2">
-        <v>8.0913774505632805</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>-4.2637752529247948</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>5.0072605708322522</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>-7.0185682067549671</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>-24.718851168736126</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>-1.9574987037258722</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1.0010595094304697</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>-1.769441768152983</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>54.61235796683949</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-3.2313457287131802</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>-0.65120531789675928</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-7.8441606197554181</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-0.16526175387697595</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>3.1016668627415124E-2</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-4.8854873310914746</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.8455372349929382</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-0.71197059832238851</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>0.86219710214028089</v>
       </c>
       <c r="AS2">
-        <v>-3.4282642247089128</v>
+        <v>-3.4282412986948523</v>
       </c>
       <c r="AT2">
-        <v>-1.7912214101973172</v>
+        <v>-1.7911928639886741</v>
       </c>
       <c r="AU2">
         <v>0.13780166712924832</v>
       </c>
       <c r="AV2">
-        <v>-3.3944962893322299</v>
+        <v>-3.3944784810207551</v>
       </c>
       <c r="AW2">
-        <v>-2.1998195713149125</v>
+        <v>-2.1998712931113049</v>
       </c>
       <c r="AX2">
-        <v>-4.7534529442754598</v>
+        <v>-4.7534933957896301</v>
       </c>
       <c r="AY2">
-        <v>1.7721222130790013</v>
+        <v>1.7720931149590811</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>2.3250197635698124</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>-0.9739961568900809</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.57229403351028696</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-11.417937651373066</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>5.9626380074307415</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.19843582463812673</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>3.0761359086937232</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.1927363786682175</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>-0.76313663983858382</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>34.686772901001646</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>29.186847073268073</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-3.7943598513119388</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>-0.49182236299995163</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>3.2432977487955794</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>-18.167893244375044</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>-3.0354748726805902</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>2.9134668924759173</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>6.6160133024233554</v>
       </c>
       <c r="T3">
-        <v>6.4490445860878891</v>
+        <v>6.4490707669757761</v>
       </c>
       <c r="U3">
-        <v>-6.1299418813820763</v>
+        <v>-6.1299109001729617</v>
       </c>
       <c r="V3">
-        <v>5.7840002006002225</v>
+        <v>5.7840002006002038</v>
       </c>
       <c r="W3">
-        <v>2.1338744891171388</v>
+        <v>2.1338744891171508</v>
       </c>
       <c r="X3">
-        <v>9.1509805477743704</v>
+        <v>9.1510376712253532</v>
       </c>
       <c r="Y3">
-        <v>5.0244382185697818</v>
+        <v>31.132604839039395</v>
       </c>
       <c r="Z3">
-        <v>-4.7778183125658735</v>
+        <v>-0.71113361203608505</v>
       </c>
       <c r="AA3">
-        <v>-0.25646087433857045</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>-3.7319714576123624</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.10026364864478793</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>-9.0114290720388723</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>-4.9441237645514446</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>-0.11395179011589841</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>12.179492023408701</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>4.9940844785952416</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>-2.8128765883278626</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.14387682946902303</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>34.485979376616186</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>-1.5525935553187085</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-0.92526912242476089</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.95061384647129843</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>10.732002122093427</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-6.6525355227412426</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>-2.0696526584561834</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>-2.0711979323314216</v>
+        <v>-2.071146710084073</v>
       </c>
       <c r="AS3">
-        <v>-0.46669188627736874</v>
+        <v>-0.4667160847199891</v>
       </c>
       <c r="AT3">
-        <v>-4.5058637761847873</v>
+        <v>-4.5058319946021657</v>
       </c>
       <c r="AU3">
         <v>-1.7519040317992716</v>
       </c>
       <c r="AV3">
-        <v>-1.6510095589011797</v>
+        <v>-1.651061377715866</v>
       </c>
       <c r="AW3">
-        <v>-4.8727273872815164</v>
+        <v>-4.8727039407818351</v>
       </c>
       <c r="AX3">
-        <v>-24.967161394903254</v>
+        <v>-22.78784082063062</v>
       </c>
       <c r="AY3">
-        <v>-13.354555285460092</v>
+        <v>20.488760239025872</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_GMapo_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMapo_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1.4822278663602189</v>
+        <v>9.011600379844781</v>
       </c>
       <c r="C2">
-        <v>-4.8249778456764619E-2</v>
+        <v>-0.33441059779038818</v>
       </c>
       <c r="D2">
-        <v>-6.9288642871601844</v>
+        <v>3.1016668627394068E-2</v>
       </c>
       <c r="E2">
-        <v>-8.6918259091349714</v>
+        <v>-0.71195215165847137</v>
       </c>
       <c r="F2">
         <v>-14.181304321163523</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.3250197355663227</v>
+        <v>3.2432977487955794</v>
       </c>
       <c r="C3">
-        <v>0.20532328757046189</v>
+        <v>2.9135070357136352</v>
       </c>
       <c r="D3">
-        <v>0.57237178272278721</v>
+        <v>0.95061384647132041</v>
       </c>
       <c r="E3">
-        <v>-11.417937650101639</v>
+        <v>-2.2070271647591602</v>
       </c>
       <c r="F3">
         <v>5.9626086735218173</v>

--- a/data_output/prism_passive/all_passive_out_strain_GMapo_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMapo_submax_2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1.4822278663602189</v>
+        <v>10.725280943399168</v>
       </c>
       <c r="C2">
-        <v>-4.8249778456764619E-2</v>
+        <v>9.011600379844781</v>
       </c>
       <c r="D2">
-        <v>-6.9288642871601844</v>
+        <v>8.4015339261526361</v>
       </c>
       <c r="E2">
-        <v>-8.6918259091349714</v>
+        <v>3.1016668627394068E-2</v>
       </c>
       <c r="F2">
         <v>-14.181304321163523</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.3250197355663227</v>
+        <v>28.315069971155811</v>
       </c>
       <c r="C3">
-        <v>0.20532328757046189</v>
+        <v>3.2432977487955794</v>
       </c>
       <c r="D3">
-        <v>0.57237178272278721</v>
+        <v>1.3557792669367603</v>
       </c>
       <c r="E3">
-        <v>-11.417937650101639</v>
+        <v>0.95061384647132041</v>
       </c>
       <c r="F3">
         <v>5.9626086735218173</v>

--- a/data_output/prism_passive/all_passive_out_strain_GMapo_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMapo_submax_2.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>-1.4822278739725792</v>
+      </c>
+      <c r="C2">
+        <v>-4.824977977710352E-2</v>
+      </c>
+      <c r="D2">
+        <v>-6.9288642721222731</v>
+      </c>
+      <c r="E2">
+        <v>-8.6918259114070668</v>
+      </c>
+      <c r="F2">
+        <v>-14.181304321062759</v>
+      </c>
+      <c r="G2">
+        <v>7.3390564162169838</v>
+      </c>
+      <c r="H2">
+        <v>-5.6725701374160149</v>
+      </c>
+      <c r="I2">
+        <v>5.3018763422464827</v>
+      </c>
+      <c r="J2">
+        <v>4.579161910791921</v>
+      </c>
+      <c r="K2">
+        <v>5.791624606576903</v>
+      </c>
+      <c r="L2">
+        <v>7.6642884571244476</v>
+      </c>
+      <c r="M2">
+        <v>-1.7581068059257496</v>
+      </c>
+      <c r="N2">
         <v>10.725280943399168</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>9.011600379844781</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>-0.4295348461602575</v>
+      </c>
+      <c r="Q2">
+        <v>-6.0285390447073963</v>
+      </c>
+      <c r="R2">
+        <v>-0.33441059779038818</v>
+      </c>
+      <c r="S2">
+        <v>5.4491131949960661</v>
+      </c>
+      <c r="T2">
+        <v>-5.5841391706053152</v>
+      </c>
+      <c r="U2">
+        <v>6.6725418529488909</v>
+      </c>
+      <c r="V2">
+        <v>-6.9738393142706068</v>
+      </c>
+      <c r="W2">
+        <v>7.2134677150150139</v>
+      </c>
+      <c r="X2">
+        <v>-2.0421065043482192</v>
+      </c>
+      <c r="Y2">
+        <v>-2.285846069050629</v>
+      </c>
+      <c r="Z2">
+        <v>-20.794409707134264</v>
+      </c>
+      <c r="AA2">
+        <v>8.0913774505632681</v>
+      </c>
+      <c r="AB2">
+        <v>13.845542841149644</v>
+      </c>
+      <c r="AC2">
+        <v>5.0071791748402887</v>
+      </c>
+      <c r="AD2">
+        <v>-2.063315818414913</v>
+      </c>
+      <c r="AE2">
+        <v>-24.718851168736126</v>
+      </c>
+      <c r="AF2">
+        <v>-1.9574987037258722</v>
+      </c>
+      <c r="AG2">
+        <v>1.0010942297383132</v>
+      </c>
+      <c r="AH2">
+        <v>-1.769441768152983</v>
+      </c>
+      <c r="AI2">
+        <v>54.612432882955318</v>
+      </c>
+      <c r="AJ2">
+        <v>-1.4924115152197286</v>
+      </c>
+      <c r="AK2">
+        <v>-0.65125171841044327</v>
+      </c>
+      <c r="AL2">
+        <v>-7.844184212008944</v>
+      </c>
+      <c r="AM2">
         <v>8.4015339261526361</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>3.1016668627394068E-2</v>
       </c>
-      <c r="F2">
-        <v>-14.181304321163523</v>
-      </c>
-      <c r="G2">
-        <v>7.339056387277715</v>
-      </c>
-      <c r="H2">
-        <v>-5.6725701305857221</v>
-      </c>
-      <c r="I2">
-        <v>5.3018763435697682</v>
-      </c>
-      <c r="J2">
-        <v>4.5791618623914445</v>
-      </c>
-      <c r="K2">
-        <v>5.791624583686084</v>
-      </c>
-      <c r="L2">
-        <v>7.6642884439459023</v>
-      </c>
-      <c r="M2">
-        <v>-1.7581068010039593</v>
-      </c>
-      <c r="N2">
-        <v>10.725280935900278</v>
-      </c>
-      <c r="O2">
-        <v>9.011600376484493</v>
-      </c>
-      <c r="P2">
-        <v>-0.42953486665950741</v>
-      </c>
-      <c r="Q2">
-        <v>-6.0285390619721726</v>
-      </c>
-      <c r="R2">
-        <v>-0.33441060810937706</v>
-      </c>
-      <c r="S2">
-        <v>5.4491131732591169</v>
-      </c>
-      <c r="T2">
-        <v>-5.5841391683417578</v>
-      </c>
-      <c r="U2">
-        <v>6.6725418476086151</v>
-      </c>
-      <c r="V2">
-        <v>-6.9738393404064318</v>
-      </c>
-      <c r="W2">
-        <v>7.213467714845244</v>
-      </c>
-      <c r="X2">
-        <v>-2.0421065075282003</v>
-      </c>
-      <c r="Y2">
-        <v>-2.2858460752593688</v>
-      </c>
-      <c r="Z2">
-        <v>-20.794409708953964</v>
-      </c>
-      <c r="AA2">
-        <v>8.0913774186486176</v>
-      </c>
-      <c r="AB2">
-        <v>13.845542819243409</v>
-      </c>
-      <c r="AC2">
-        <v>5.0071791431268595</v>
-      </c>
-      <c r="AD2">
-        <v>-2.0633158413234987</v>
-      </c>
-      <c r="AE2">
-        <v>-24.718851169396853</v>
-      </c>
-      <c r="AF2">
-        <v>-1.957498723309365</v>
-      </c>
-      <c r="AG2">
-        <v>1.0010942379637435</v>
-      </c>
-      <c r="AH2">
-        <v>-1.7694417821126815</v>
-      </c>
-      <c r="AI2">
-        <v>54.612432855815825</v>
-      </c>
-      <c r="AJ2">
-        <v>-1.4924115012135146</v>
-      </c>
-      <c r="AK2">
-        <v>-0.65125174687792031</v>
-      </c>
-      <c r="AL2">
-        <v>-7.8441842230746364</v>
-      </c>
-      <c r="AM2">
-        <v>8.4015339330966619</v>
-      </c>
-      <c r="AN2">
-        <v>3.101667195498415E-2</v>
-      </c>
       <c r="AO2">
-        <v>-4.8855056427278507</v>
+        <v>-4.8855056300161399</v>
       </c>
       <c r="AP2">
-        <v>1.4547811286110444</v>
+        <v>1.4547811418145322</v>
       </c>
       <c r="AQ2">
-        <v>-0.71195218073169531</v>
+        <v>-0.71195215165847137</v>
       </c>
       <c r="AR2">
-        <v>0.86219710880576295</v>
+        <v>0.86219710214028089</v>
       </c>
       <c r="AS2">
-        <v>-3.4282413310013049</v>
+        <v>-3.4282412986948523</v>
       </c>
       <c r="AT2">
-        <v>-1.7911928789464953</v>
+        <v>-1.7911928639886741</v>
       </c>
       <c r="AU2">
-        <v>0.13780165024833796</v>
+        <v>0.13780166712924832</v>
       </c>
       <c r="AV2">
-        <v>-3.3944785033754763</v>
+        <v>-3.3944784810207551</v>
       </c>
       <c r="AW2">
-        <v>-2.1998713152144074</v>
+        <v>-2.1998712931113049</v>
       </c>
       <c r="AX2">
-        <v>-4.7534934114341256</v>
+        <v>-4.7534933957896301</v>
       </c>
       <c r="AY2">
-        <v>1.7720930973946403</v>
+        <v>1.7720931149590811</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>2.3250197635698124</v>
+      </c>
+      <c r="C3">
+        <v>0.20532326797123804</v>
+      </c>
+      <c r="D3">
+        <v>0.57237178681509815</v>
+      </c>
+      <c r="E3">
+        <v>-11.417937651373053</v>
+      </c>
+      <c r="F3">
+        <v>5.9626086846394504</v>
+      </c>
+      <c r="G3">
+        <v>0.19843582463812673</v>
+      </c>
+      <c r="H3">
+        <v>3.0760611962411963</v>
+      </c>
+      <c r="I3">
+        <v>1.1926858643939184</v>
+      </c>
+      <c r="J3">
+        <v>13.083809371834624</v>
+      </c>
+      <c r="K3">
+        <v>34.686772901001646</v>
+      </c>
+      <c r="L3">
+        <v>29.186795961833571</v>
+      </c>
+      <c r="M3">
+        <v>-3.794337332989973</v>
+      </c>
+      <c r="N3">
         <v>28.315069971155811</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>3.2432977487955794</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>-18.167878077191169</v>
+      </c>
+      <c r="Q3">
+        <v>-3.0355171999436044</v>
+      </c>
+      <c r="R3">
+        <v>2.9135070357136352</v>
+      </c>
+      <c r="S3">
+        <v>6.6160133024233554</v>
+      </c>
+      <c r="T3">
+        <v>6.4490707669757761</v>
+      </c>
+      <c r="U3">
+        <v>-6.1299109001729617</v>
+      </c>
+      <c r="V3">
+        <v>5.7840002006002038</v>
+      </c>
+      <c r="W3">
+        <v>2.4349982476059822</v>
+      </c>
+      <c r="X3">
+        <v>9.1510376712253532</v>
+      </c>
+      <c r="Y3">
+        <v>31.132604839039395</v>
+      </c>
+      <c r="Z3">
+        <v>-0.71113361203608505</v>
+      </c>
+      <c r="AA3">
+        <v>-0.25646087433857045</v>
+      </c>
+      <c r="AB3">
+        <v>-0.90117003862118983</v>
+      </c>
+      <c r="AC3">
+        <v>0.10026364864478793</v>
+      </c>
+      <c r="AD3">
+        <v>-9.0114474591593439</v>
+      </c>
+      <c r="AE3">
+        <v>-4.9441237645514642</v>
+      </c>
+      <c r="AF3">
+        <v>-0.11392597167426199</v>
+      </c>
+      <c r="AG3">
+        <v>12.179492023408701</v>
+      </c>
+      <c r="AH3">
+        <v>5.4975938649864897</v>
+      </c>
+      <c r="AI3">
+        <v>-1.1297448831651247</v>
+      </c>
+      <c r="AJ3">
+        <v>-0.14384597180682354</v>
+      </c>
+      <c r="AK3">
+        <v>34.485979376616243</v>
+      </c>
+      <c r="AL3">
+        <v>-1.5525935553187085</v>
+      </c>
+      <c r="AM3">
         <v>1.3557792669367603</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>0.95061384647132041</v>
       </c>
-      <c r="F3">
-        <v>5.9626086735218173</v>
-      </c>
-      <c r="G3">
-        <v>0.19843583584178598</v>
-      </c>
-      <c r="H3">
-        <v>3.0760611947362313</v>
-      </c>
-      <c r="I3">
-        <v>1.1926858517838062</v>
-      </c>
-      <c r="J3">
-        <v>13.083809365902832</v>
-      </c>
-      <c r="K3">
-        <v>34.686772891305566</v>
-      </c>
-      <c r="L3">
-        <v>29.18679597747515</v>
-      </c>
-      <c r="M3">
-        <v>-3.7943801146212501</v>
-      </c>
-      <c r="N3">
-        <v>28.315069964625234</v>
-      </c>
-      <c r="O3">
-        <v>3.2432977381042081</v>
-      </c>
-      <c r="P3">
-        <v>-18.167878071902198</v>
-      </c>
-      <c r="Q3">
-        <v>-3.035517213995321</v>
-      </c>
-      <c r="R3">
-        <v>2.913507034611249</v>
-      </c>
-      <c r="S3">
-        <v>6.6160132961730174</v>
-      </c>
-      <c r="T3">
-        <v>6.4490707678274415</v>
-      </c>
-      <c r="U3">
-        <v>-6.1299108933455599</v>
-      </c>
-      <c r="V3">
-        <v>5.78400019342169</v>
-      </c>
-      <c r="W3">
-        <v>2.4349982086115216</v>
-      </c>
-      <c r="X3">
-        <v>9.1510376375409397</v>
-      </c>
-      <c r="Y3">
-        <v>31.13260482955706</v>
-      </c>
-      <c r="Z3">
-        <v>-0.71113362044121264</v>
-      </c>
-      <c r="AA3">
-        <v>-0.25646088170570458</v>
-      </c>
-      <c r="AB3">
-        <v>-0.90117007867316545</v>
-      </c>
-      <c r="AC3">
-        <v>0.10026361093462448</v>
-      </c>
-      <c r="AD3">
-        <v>-9.0114474739550499</v>
-      </c>
-      <c r="AE3">
-        <v>-4.9441237593419967</v>
-      </c>
-      <c r="AF3">
-        <v>-0.11392599534388718</v>
-      </c>
-      <c r="AG3">
-        <v>12.179491998742115</v>
-      </c>
-      <c r="AH3">
-        <v>5.4975938596927625</v>
-      </c>
-      <c r="AI3">
-        <v>-1.1297449098797665</v>
-      </c>
-      <c r="AJ3">
-        <v>-0.14384596265785182</v>
-      </c>
-      <c r="AK3">
-        <v>34.485979414009435</v>
-      </c>
-      <c r="AL3">
-        <v>-1.552593563468373</v>
-      </c>
-      <c r="AM3">
-        <v>1.3557792502445933</v>
-      </c>
-      <c r="AN3">
-        <v>0.95061383800240562</v>
-      </c>
       <c r="AO3">
-        <v>10.732023250299964</v>
+        <v>10.732023279902153</v>
       </c>
       <c r="AP3">
-        <v>-6.6525752704890264</v>
+        <v>-6.6525752537744305</v>
       </c>
       <c r="AQ3">
-        <v>-2.2070271675450135</v>
+        <v>-2.2070271647591602</v>
       </c>
       <c r="AR3">
-        <v>-2.0711467254446081</v>
+        <v>-2.071146710084073</v>
       </c>
       <c r="AS3">
-        <v>-0.46671609734591607</v>
+        <v>-0.4667160847199891</v>
       </c>
       <c r="AT3">
-        <v>-4.5058320324992858</v>
+        <v>-4.5058319946021657</v>
       </c>
       <c r="AU3">
-        <v>-1.7519040521066427</v>
+        <v>-1.7519040317992716</v>
       </c>
       <c r="AV3">
-        <v>-1.6510613265362</v>
+        <v>-1.651061377715866</v>
       </c>
       <c r="AW3">
-        <v>-4.8727039361286559</v>
+        <v>-4.8727039407818351</v>
       </c>
       <c r="AX3">
-        <v>-22.787840833816073</v>
+        <v>-22.78784082063062</v>
       </c>
       <c r="AY3">
-        <v>20.488760239970325</v>
+        <v>20.488760239025872</v>
       </c>
     </row>
   </sheetData>
